--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1122">
   <si>
     <t>anchor score</t>
   </si>
@@ -535,460 +535,460 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>keeping</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>keeping</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>cal</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>report</t>
   </si>
   <si>
     <t>san</t>
@@ -3748,7 +3748,7 @@
         <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3806,7 +3806,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02617316361758984</v>
+        <v>0.02649347612577395</v>
       </c>
       <c r="C3">
         <v>194</v>
@@ -3827,16 +3827,16 @@
         <v>98</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K3">
-        <v>0.005635755744089579</v>
+        <v>0.006999771213648077</v>
       </c>
       <c r="L3">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="M3">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>357</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3856,7 +3856,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01386194208462996</v>
+        <v>0.01403158735572919</v>
       </c>
       <c r="C4">
         <v>146</v>
@@ -3877,16 +3877,16 @@
         <v>369</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K4">
-        <v>0.004986754567099493</v>
+        <v>0.006256851814021895</v>
       </c>
       <c r="L4">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="M4">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3906,7 +3906,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.009205788141689191</v>
+        <v>0.009318450452312364</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -3927,28 +3927,28 @@
         <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>180</v>
+        <v>325</v>
       </c>
       <c r="K5">
-        <v>0.004149793118724967</v>
+        <v>0.005635755744089579</v>
       </c>
       <c r="L5">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="M5">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="N5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>166</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3956,7 +3956,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.008813871115115078</v>
+        <v>0.008921737065328167</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -3977,28 +3977,28 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="K6">
-        <v>0.003999138093461846</v>
+        <v>0.004986754567099493</v>
       </c>
       <c r="L6">
-        <v>618</v>
+        <v>101</v>
       </c>
       <c r="M6">
-        <v>647</v>
+        <v>101</v>
       </c>
       <c r="N6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2460</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4006,7 +4006,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.008813871115115078</v>
+        <v>0.008921737065328167</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -4027,28 +4027,28 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>327</v>
+        <v>178</v>
       </c>
       <c r="K7">
-        <v>0.003508668269583773</v>
+        <v>0.004149793118724967</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4056,7 +4056,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007277814546176678</v>
+        <v>0.00736688192318333</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -4077,28 +4077,28 @@
         <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>328</v>
+        <v>71</v>
       </c>
       <c r="K8">
-        <v>0.003401780099363412</v>
+        <v>0.003999138093461846</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>618</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>647</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>183</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4106,7 +4106,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007277814546176678</v>
+        <v>0.00736688192318333</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -4127,28 +4127,28 @@
         <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
+        <v>327</v>
       </c>
       <c r="K9">
-        <v>0.003396445582381107</v>
+        <v>0.003508668269583773</v>
       </c>
       <c r="L9">
-        <v>425</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>444</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2757</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4156,7 +4156,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006509475221155133</v>
+        <v>0.006589139504980923</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -4177,28 +4177,28 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="K10">
-        <v>0.003123150874063654</v>
+        <v>0.003401780099363412</v>
       </c>
       <c r="L10">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="N10">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>678</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4206,7 +4206,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006509475221155133</v>
+        <v>0.006589139504980923</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -4227,28 +4227,28 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>329</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>0.003018270570911122</v>
+        <v>0.003396445582381107</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>425</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>444</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>230</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4256,7 +4256,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006232348034002109</v>
+        <v>0.006308620778856915</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4277,28 +4277,28 @@
         <v>40</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>330</v>
+        <v>173</v>
       </c>
       <c r="K12">
-        <v>0.002977203751628106</v>
+        <v>0.003123150874063654</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>79</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4306,7 +4306,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006232348034002109</v>
+        <v>0.006308620778856915</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4327,28 +4327,28 @@
         <v>362</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="K13">
-        <v>0.002944400200770061</v>
+        <v>0.003018270570911122</v>
       </c>
       <c r="L13">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4356,7 +4356,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006232348034002109</v>
+        <v>0.006308620778856915</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -4377,16 +4377,16 @@
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K14">
-        <v>0.002935562487529228</v>
+        <v>0.002977203751628106</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4406,7 +4406,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006232348034002109</v>
+        <v>0.006308620778856915</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -4427,28 +4427,28 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>332</v>
+        <v>188</v>
       </c>
       <c r="K15">
-        <v>0.002806934615667018</v>
+        <v>0.002944400200770061</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4456,7 +4456,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006232348034002109</v>
+        <v>0.006308620778856915</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -4477,28 +4477,28 @@
         <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="K16">
-        <v>0.002796293230921754</v>
+        <v>0.002935562487529228</v>
       </c>
       <c r="L16">
-        <v>422</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>449</v>
+        <v>35</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1694</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4506,7 +4506,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.005942310693579328</v>
+        <v>0.00601503390237746</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -4527,16 +4527,16 @@
         <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K17">
-        <v>0.002762728158199802</v>
+        <v>0.002806934615667018</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4556,7 +4556,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.005637370906825673</v>
+        <v>0.005706362200393101</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -4577,28 +4577,28 @@
         <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>334</v>
+        <v>85</v>
       </c>
       <c r="K18">
-        <v>0.00271780275509287</v>
+        <v>0.002796293230921754</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>422</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>449</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>276</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4606,7 +4606,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005637370906825673</v>
+        <v>0.005706362200393101</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -4627,28 +4627,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="K19">
-        <v>0.002701053679507759</v>
+        <v>0.002762728158199802</v>
       </c>
       <c r="L19">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4656,7 +4656,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005637370906825673</v>
+        <v>0.005706362200393101</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K20">
-        <v>0.002481003126356755</v>
+        <v>0.00271780275509287</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4706,7 +4706,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00531496426170692</v>
+        <v>0.005380009877072734</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -4727,28 +4727,28 @@
         <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K21">
-        <v>0.002438395493460966</v>
+        <v>0.002701053679507759</v>
       </c>
       <c r="L21">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="M21">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4756,7 +4756,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00531496426170692</v>
+        <v>0.005380009877072734</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -4777,16 +4777,16 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K22">
-        <v>0.002430876683929547</v>
+        <v>0.002481003126356755</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4806,7 +4806,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00531496426170692</v>
+        <v>0.005380009877072734</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -4827,28 +4827,28 @@
         <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>337</v>
+        <v>191</v>
       </c>
       <c r="K23">
-        <v>0.002430876683929547</v>
+        <v>0.002438395493460966</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4856,7 +4856,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00531496426170692</v>
+        <v>0.005380009877072734</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4877,28 +4877,28 @@
         <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="K24">
-        <v>0.00240859255443186</v>
+        <v>0.002430876683929547</v>
       </c>
       <c r="L24">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>697</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4906,7 +4906,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00531496426170692</v>
+        <v>0.005380009877072734</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4927,16 +4927,16 @@
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K25">
-        <v>0.002379694600563827</v>
+        <v>0.002430876683929547</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4956,7 +4956,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00531496426170692</v>
+        <v>0.005380009877072734</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -4977,28 +4977,28 @@
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>339</v>
+        <v>172</v>
       </c>
       <c r="K26">
-        <v>0.002379694600563827</v>
+        <v>0.00240859255443186</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>101</v>
+        <v>697</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -5006,7 +5006,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.004971693822563801</v>
+        <v>0.005032538424366489</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -5027,16 +5027,16 @@
         <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K27">
-        <v>0.002273876925190384</v>
+        <v>0.002379694600563827</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5056,7 +5056,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.004971693822563801</v>
+        <v>0.005032538424366489</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -5077,16 +5077,16 @@
         <v>245</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K28">
-        <v>0.002273876925190384</v>
+        <v>0.002379694600563827</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>443</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -5106,7 +5106,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.004971693822563801</v>
+        <v>0.005032538424366489</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -5127,16 +5127,16 @@
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K29">
-        <v>0.002219076657169282</v>
+        <v>0.002273876925190384</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5156,7 +5156,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.004971693822563801</v>
+        <v>0.005032538424366489</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -5177,16 +5177,16 @@
         <v>159</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K30">
-        <v>0.002219076657169282</v>
+        <v>0.002273876925190384</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>280</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5206,7 +5206,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.004971693822563801</v>
+        <v>0.005032538424366489</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -5227,7 +5227,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K31">
         <v>0.002219076657169282</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5256,7 +5256,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004971693822563801</v>
+        <v>0.005032538424366489</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -5277,7 +5277,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K32">
         <v>0.002219076657169282</v>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5306,7 +5306,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004971693822563801</v>
+        <v>0.005032538424366489</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -5327,28 +5327,28 @@
         <v>6</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>187</v>
+        <v>344</v>
       </c>
       <c r="K33">
-        <v>0.002164986042679268</v>
+        <v>0.002219076657169282</v>
       </c>
       <c r="L33">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="N33">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5356,7 +5356,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004971693822563801</v>
+        <v>0.005032538424366489</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -5377,16 +5377,16 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K34">
-        <v>0.002162888381279514</v>
+        <v>0.002219076657169282</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5406,7 +5406,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004971693822563801</v>
+        <v>0.005032538424366489</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -5427,28 +5427,28 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>347</v>
+        <v>185</v>
       </c>
       <c r="K35">
-        <v>0.002162888381279514</v>
+        <v>0.002164986042679268</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5456,7 +5456,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004971693822563801</v>
+        <v>0.005032538424366489</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -5477,7 +5477,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K36">
         <v>0.002162888381279514</v>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5506,7 +5506,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004602894070844596</v>
+        <v>0.004659225226156182</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -5527,7 +5527,7 @@
         <v>6</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K37">
         <v>0.002162888381279514</v>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5556,7 +5556,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004602894070844596</v>
+        <v>0.004659225226156182</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -5577,28 +5577,28 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="K38">
-        <v>0.002116971382670762</v>
+        <v>0.002162888381279514</v>
       </c>
       <c r="L38">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5606,7 +5606,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004602894070844596</v>
+        <v>0.004659225226156182</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -5627,28 +5627,28 @@
         <v>74</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>196</v>
+        <v>349</v>
       </c>
       <c r="K39">
-        <v>0.002116971382670762</v>
+        <v>0.002162888381279514</v>
       </c>
       <c r="L39">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="N39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>237</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5656,7 +5656,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004602894070844596</v>
+        <v>0.004659225226156182</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -5677,28 +5677,28 @@
         <v>32</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>350</v>
+        <v>193</v>
       </c>
       <c r="K40">
-        <v>0.002105200961750263</v>
+        <v>0.002116971382670762</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5706,7 +5706,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004602894070844596</v>
+        <v>0.004659225226156182</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -5727,28 +5727,28 @@
         <v>24</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>351</v>
+        <v>194</v>
       </c>
       <c r="K41">
-        <v>0.002105200961750263</v>
+        <v>0.002116971382670762</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>101</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5756,7 +5756,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004602894070844596</v>
+        <v>0.004659225226156182</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5777,28 +5777,28 @@
         <v>10</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
       <c r="K42">
-        <v>0.002054042141107039</v>
+        <v>0.002105200961750263</v>
       </c>
       <c r="L42">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>132</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5806,7 +5806,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004602894070844596</v>
+        <v>0.004659225226156182</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5827,16 +5827,16 @@
         <v>6</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K43">
-        <v>0.002045887589491308</v>
+        <v>0.002105200961750263</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5856,7 +5856,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004602894070844596</v>
+        <v>0.004659225226156182</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5877,28 +5877,28 @@
         <v>13</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>353</v>
+        <v>175</v>
       </c>
       <c r="K44">
-        <v>0.002045887589491308</v>
+        <v>0.002054042141107039</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5906,7 +5906,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004602894070844596</v>
+        <v>0.004659225226156182</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5927,28 +5927,28 @@
         <v>14</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>185</v>
+        <v>352</v>
       </c>
       <c r="K45">
-        <v>0.00200085202723615</v>
+        <v>0.002045887589491308</v>
       </c>
       <c r="L45">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5956,7 +5956,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004602894070844596</v>
+        <v>0.004659225226156182</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5977,16 +5977,16 @@
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K46">
-        <v>0.001984802501085404</v>
+        <v>0.002045887589491308</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>88</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -6006,7 +6006,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004602894070844596</v>
+        <v>0.004659225226156182</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -6027,28 +6027,28 @@
         <v>10</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K47">
-        <v>0.001958051116194771</v>
+        <v>0.00200085202723615</v>
       </c>
       <c r="L47">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="M47">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -6056,7 +6056,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004201848187347279</v>
+        <v>0.004253271261438083</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -6077,16 +6077,16 @@
         <v>85</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K48">
-        <v>0.00192177675805365</v>
+        <v>0.001984802501085404</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -6106,7 +6106,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004201848187347279</v>
+        <v>0.004253271261438083</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -6127,7 +6127,7 @@
         <v>35</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K49">
         <v>0.00192177675805365</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -6156,7 +6156,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004201848187347279</v>
+        <v>0.004253271261438083</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -6177,28 +6177,28 @@
         <v>19</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>173</v>
+        <v>356</v>
       </c>
       <c r="K50">
-        <v>0.001896969916099478</v>
+        <v>0.00192177675805365</v>
       </c>
       <c r="L50">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -6206,7 +6206,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004201848187347279</v>
+        <v>0.004253271261438083</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -6256,7 +6256,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004201848187347279</v>
+        <v>0.004253271261438083</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -6306,7 +6306,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004201848187347279</v>
+        <v>0.004253271261438083</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -6356,7 +6356,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003758247271217115</v>
+        <v>0.003804241466928734</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6377,7 +6377,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K54">
         <v>0.001805929440795654</v>
@@ -6406,7 +6406,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003758247271217115</v>
+        <v>0.003804241466928734</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6456,7 +6456,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003758247271217115</v>
+        <v>0.003804241466928734</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6506,7 +6506,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003758247271217115</v>
+        <v>0.003804241466928734</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6556,7 +6556,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003758247271217115</v>
+        <v>0.003804241466928734</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -6606,7 +6606,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003758247271217115</v>
+        <v>0.003804241466928734</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6656,7 +6656,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003758247271217115</v>
+        <v>0.003804241466928734</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6706,7 +6706,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003758247271217115</v>
+        <v>0.003804241466928734</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6756,7 +6756,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003758247271217115</v>
+        <v>0.003804241466928734</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6777,7 +6777,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K62">
         <v>0.001742686759801327</v>
@@ -6806,7 +6806,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003758247271217115</v>
+        <v>0.003804241466928734</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6856,7 +6856,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003758247271217115</v>
+        <v>0.003804241466928734</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6906,7 +6906,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003758247271217115</v>
+        <v>0.003804241466928734</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6956,7 +6956,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003280720333067156</v>
+        <v>0.003320870456830916</v>
       </c>
       <c r="C66">
         <v>29</v>
@@ -7006,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003254737610577567</v>
+        <v>0.003294569752490462</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -7056,7 +7056,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003254737610577567</v>
+        <v>0.003294569752490462</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -7077,7 +7077,7 @@
         <v>23</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K68">
         <v>0.001716980572921056</v>
@@ -7106,7 +7106,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003254737610577567</v>
+        <v>0.003294569752490462</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -7127,7 +7127,7 @@
         <v>36</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K69">
         <v>0.001652598586957159</v>
@@ -7156,7 +7156,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003254737610577567</v>
+        <v>0.003294569752490462</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -7206,7 +7206,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003254737610577567</v>
+        <v>0.003294569752490462</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -7256,7 +7256,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003254737610577567</v>
+        <v>0.003294569752490462</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7306,7 +7306,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003254737610577567</v>
+        <v>0.003294569752490462</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7356,7 +7356,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003254737610577567</v>
+        <v>0.003294569752490462</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7406,7 +7406,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003254737610577567</v>
+        <v>0.003294569752490462</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7427,7 +7427,7 @@
         <v>20</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K75">
         <v>0.00163912882414212</v>
@@ -7456,7 +7456,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003254737610577567</v>
+        <v>0.003294569752490462</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7477,7 +7477,7 @@
         <v>28</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K76">
         <v>0.001590338627907318</v>
@@ -7506,7 +7506,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003254737610577567</v>
+        <v>0.003294569752490462</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7556,7 +7556,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003254737610577567</v>
+        <v>0.003294569752490462</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7606,7 +7606,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002719600072857922</v>
+        <v>0.002752883092569356</v>
       </c>
       <c r="C79">
         <v>19</v>
@@ -7656,7 +7656,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002678591065624473</v>
+        <v>0.002711372208751286</v>
       </c>
       <c r="C80">
         <v>27</v>
@@ -7706,7 +7706,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7756,7 +7756,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7806,7 +7806,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7856,7 +7856,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7906,7 +7906,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7956,7 +7956,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -8006,7 +8006,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -8056,7 +8056,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -8106,7 +8106,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -8156,7 +8156,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -8206,7 +8206,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -8256,7 +8256,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8306,7 +8306,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8356,7 +8356,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8406,7 +8406,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8456,7 +8456,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8506,7 +8506,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -8556,7 +8556,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -8606,7 +8606,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8656,7 +8656,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -8706,7 +8706,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -8756,7 +8756,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -8806,7 +8806,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -8856,7 +8856,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -8906,7 +8906,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -8956,7 +8956,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -9006,7 +9006,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -9056,7 +9056,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -9106,7 +9106,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.00265748213085346</v>
+        <v>0.002690004938536367</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -9156,7 +9156,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002503828783324802</v>
+        <v>0.002534471150039361</v>
       </c>
       <c r="C110">
         <v>19</v>
@@ -9206,7 +9206,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9227,7 +9227,7 @@
         <v>8</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K111">
         <v>0.00136239097383026</v>
@@ -9256,7 +9256,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9277,7 +9277,7 @@
         <v>8</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K112">
         <v>0.001315557074427384</v>
@@ -9306,7 +9306,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9356,7 +9356,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9406,7 +9406,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9456,7 +9456,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9506,7 +9506,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9556,7 +9556,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9606,7 +9606,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9656,7 +9656,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9706,7 +9706,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9756,7 +9756,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9806,7 +9806,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9827,7 +9827,7 @@
         <v>5</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K123">
         <v>0.001308131033622763</v>
@@ -9856,7 +9856,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9877,7 +9877,7 @@
         <v>10</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K124">
         <v>0.001234125747300092</v>
@@ -9906,7 +9906,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9956,7 +9956,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -10006,7 +10006,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -10056,7 +10056,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -10106,7 +10106,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10156,7 +10156,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -10206,7 +10206,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10256,7 +10256,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10306,7 +10306,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10356,7 +10356,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10406,7 +10406,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10456,7 +10456,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10506,7 +10506,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10556,7 +10556,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10606,7 +10606,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10656,7 +10656,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10706,7 +10706,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10727,7 +10727,7 @@
         <v>5</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K141">
         <v>0.001185567975205786</v>
@@ -10756,7 +10756,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10777,7 +10777,7 @@
         <v>10</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K142">
         <v>0.001145162734919547</v>
@@ -10806,7 +10806,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10856,7 +10856,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10906,7 +10906,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10956,7 +10956,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -11006,7 +11006,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -11056,7 +11056,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -11106,7 +11106,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11156,7 +11156,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11206,7 +11206,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11256,7 +11256,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11306,7 +11306,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11356,7 +11356,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11406,7 +11406,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11456,7 +11456,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11506,7 +11506,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11556,7 +11556,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11606,7 +11606,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11656,7 +11656,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11706,7 +11706,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11756,7 +11756,7 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -11806,7 +11806,7 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -11856,7 +11856,7 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -11906,7 +11906,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11956,7 +11956,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001879123635608557</v>
+        <v>0.001902120733464367</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -12006,7 +12006,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001842800601185124</v>
+        <v>0.001865353170346159</v>
       </c>
       <c r="C167">
         <v>8</v>
@@ -12056,25 +12056,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001836130857886143</v>
+        <v>0.001842966799334765</v>
       </c>
       <c r="C168">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D168">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E168">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F168">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>128</v>
+        <v>678</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>462</v>
@@ -12106,25 +12106,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.00182068488679175</v>
+        <v>0.001681005800127466</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D169">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="E169">
-        <v>0.98</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F169">
-        <v>0.02000000000000002</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>678</v>
+        <v>41</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>463</v>
@@ -12156,25 +12156,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.00166329202201146</v>
+        <v>0.001667926245493336</v>
       </c>
       <c r="C170">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D170">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E170">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F170">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>464</v>
@@ -12206,25 +12206,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001660682035078491</v>
+        <v>0.001585626608820313</v>
       </c>
       <c r="C171">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D171">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E171">
-        <v>0.07000000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="F171">
-        <v>0.9299999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>41</v>
+        <v>717</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>465</v>
@@ -12256,25 +12256,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001647760615410527</v>
+        <v>0.001573356465804972</v>
       </c>
       <c r="C172">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D172">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E172">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F172">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>132</v>
+        <v>270</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>466</v>
@@ -12306,25 +12306,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001566456001169451</v>
+        <v>0.00153427421501991</v>
       </c>
       <c r="C173">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="E173">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F173">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>717</v>
+        <v>166</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>467</v>
@@ -12356,25 +12356,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001554334207138832</v>
+        <v>0.001437267343216602</v>
       </c>
       <c r="C174">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D174">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E174">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F174">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>270</v>
+        <v>446</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>468</v>
@@ -12406,28 +12406,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001515724470180004</v>
+        <v>0.001398681370779682</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D175">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="E175">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F175">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>166</v>
+        <v>1035</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K175">
         <v>0.001100071108471238</v>
@@ -12456,28 +12456,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.001419890434824088</v>
+        <v>0.001358512896701188</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D176">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E176">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F176">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>446</v>
+        <v>533</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K176">
         <v>0.001059543557671807</v>
@@ -12506,28 +12506,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.001381770976088629</v>
+        <v>0.001320311571776526</v>
       </c>
       <c r="C177">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E177">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F177">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>1035</v>
+        <v>35</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K177">
         <v>0.0009989864408233497</v>
@@ -12556,25 +12556,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.00134208814853764</v>
+        <v>0.001315395298889321</v>
       </c>
       <c r="C178">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D178">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E178">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F178">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>533</v>
+        <v>15</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>469</v>
@@ -12606,25 +12606,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.00130434868683336</v>
+        <v>0.001299919152081239</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D179">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E179">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F179">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>35</v>
+        <v>317</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>470</v>
@@ -12656,25 +12656,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.001299491852869607</v>
+        <v>0.00121056174095787</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E180">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F180">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>471</v>
@@ -12706,25 +12706,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.001284202816404372</v>
+        <v>0.00118271524262892</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D181">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E181">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F181">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>472</v>
@@ -12756,25 +12756,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.001195925757906151</v>
+        <v>0.001111271777899297</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D182">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E182">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F182">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>473</v>
@@ -12806,25 +12806,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.001168415930449741</v>
+        <v>0.001086089795430704</v>
       </c>
       <c r="C183">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E183">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F183">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>474</v>
@@ -12856,25 +12856,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.001097836234418204</v>
+        <v>0.001061239509098183</v>
       </c>
       <c r="C184">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E184">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F184">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>475</v>
@@ -12906,25 +12906,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.001072958708183563</v>
+        <v>0.001029350989298264</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D185">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E185">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F185">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>476</v>
@@ -12956,25 +12956,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.001048408867798809</v>
+        <v>0.00101987107857868</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E186">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F186">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>477</v>
@@ -13006,25 +13006,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.001016905887884668</v>
+        <v>0.001007096713882495</v>
       </c>
       <c r="C187">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D187">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E187">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F187">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>478</v>
@@ -13056,13 +13056,13 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.001007540591569233</v>
+        <v>0.0009699441756590799</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E188">
         <v>0.99</v>
@@ -13074,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>479</v>
@@ -13106,25 +13106,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0009949206720193495</v>
+        <v>0.0009699441756590799</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F189">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>480</v>
@@ -13156,25 +13156,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0009582173169324636</v>
+        <v>0.0008937231580579965</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D190">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E190">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F190">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>481</v>
@@ -13206,25 +13206,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0009582173169324636</v>
+        <v>0.0008798502700722026</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E191">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F191">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>482</v>
@@ -13256,25 +13256,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0008829178297945118</v>
+        <v>0.0008759520987567633</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E192">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F192">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>483</v>
@@ -13306,13 +13306,13 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0008692126683662066</v>
+        <v>0.0008156251362829272</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E193">
         <v>0.98</v>
@@ -13324,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>484</v>
@@ -13356,25 +13356,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0008653616268809737</v>
+        <v>0.0007940906164894583</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E194">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F194">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>485</v>
@@ -13406,25 +13406,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0008057640319151755</v>
+        <v>0.0007866782329024862</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E195">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F195">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>486</v>
@@ -13456,25 +13456,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0007844898696533058</v>
+        <v>0.0007681980663502537</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E196">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F196">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>487</v>
@@ -13506,25 +13506,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0007771671035694162</v>
+        <v>0.0007202957576310426</v>
       </c>
       <c r="C197">
         <v>2</v>
       </c>
       <c r="D197">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E197">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F197">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>488</v>
@@ -13556,25 +13556,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.000758910366682355</v>
+        <v>0.0007202957576310426</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E198">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F198">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>489</v>
@@ -13606,25 +13606,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0007115872084144028</v>
+        <v>0.0007111175009190879</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E199">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F199">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>490</v>
@@ -13656,25 +13656,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0007115872084144028</v>
+        <v>0.0006908112951103118</v>
       </c>
       <c r="C200">
         <v>2</v>
       </c>
       <c r="D200">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E200">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F200">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>491</v>
@@ -13706,25 +13706,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0007025199190369802</v>
+        <v>0.0006892797338130406</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
+        <v>28</v>
+      </c>
+      <c r="E201">
+        <v>0.96</v>
+      </c>
+      <c r="F201">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201">
         <v>30</v>
-      </c>
-      <c r="E201">
-        <v>0.97</v>
-      </c>
-      <c r="F201">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201">
-        <v>117</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>492</v>
@@ -13756,25 +13756,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0006824592201478484</v>
+        <v>0.0006777230395148808</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E202">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F202">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>493</v>
@@ -13806,25 +13806,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.000680946175795588</v>
+        <v>0.0006753407947790455</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E203">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F203">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>494</v>
@@ -13856,13 +13856,13 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0006695292047153022</v>
+        <v>0.0006656996080303156</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E204">
         <v>0.96</v>
@@ -13874,7 +13874,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>137</v>
+        <v>334</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>495</v>
@@ -13906,13 +13906,13 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.000667175761892165</v>
+        <v>0.0006593447213317395</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
       <c r="D205">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E205">
         <v>0.93</v>
@@ -13924,7 +13924,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>496</v>
@@ -13956,13 +13956,13 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0006576511394136236</v>
+        <v>0.0006531739836730256</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E206">
         <v>0.96</v>
@@ -13974,7 +13974,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>497</v>
@@ -14006,13 +14006,13 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0006513730848260164</v>
+        <v>0.0006427895815011432</v>
       </c>
       <c r="C207">
         <v>2</v>
       </c>
       <c r="D207">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E207">
         <v>0.93</v>
@@ -14024,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>498</v>
@@ -14056,13 +14056,13 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0006452769528720211</v>
+        <v>0.0006401066404126387</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E208">
         <v>0.96</v>
@@ -14074,7 +14074,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>499</v>
@@ -14106,25 +14106,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0006350181006238209</v>
+        <v>0.0006396262216995369</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D209">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E209">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F209">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>500</v>
@@ -14156,13 +14156,13 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0006323675969393509</v>
+        <v>0.0006264533446132494</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E210">
         <v>0.96</v>
@@ -14174,7 +14174,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>501</v>
@@ -14206,25 +14206,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0006318929866042151</v>
+        <v>0.0006264533446132494</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E211">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F211">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>502</v>
@@ -14256,25 +14256,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0006188793727750207</v>
+        <v>0.0005948967238030775</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D212">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E212">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="F212">
-        <v>0.04000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>204</v>
+        <v>504</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>503</v>
@@ -14306,19 +14306,19 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0006188793727750207</v>
+        <v>0.0005814475588600461</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F213">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
@@ -14356,25 +14356,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.000587704279111892</v>
+        <v>0.0005814475588600461</v>
       </c>
       <c r="C214">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E214">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="F214">
-        <v>0.15</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>504</v>
+        <v>28</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>505</v>
@@ -14406,25 +14406,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0005744177178126947</v>
+        <v>0.0005685826860525461</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D215">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E215">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F215">
-        <v>0.05000000000000004</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>89</v>
+        <v>906</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>506</v>
@@ -14456,13 +14456,13 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0005744177178126947</v>
+        <v>0.0005648835194622654</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E216">
         <v>0.95</v>
@@ -14474,7 +14474,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>507</v>
@@ -14506,25 +14506,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0005617083844163644</v>
+        <v>0.0005648289193552507</v>
       </c>
       <c r="C217">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D217">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E217">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="F217">
-        <v>0.1899999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>906</v>
+        <v>107</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>508</v>
@@ -14556,25 +14556,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0005580539416412258</v>
+        <v>0.0005474084065120718</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E218">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F218">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>509</v>
@@ -14606,25 +14606,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0005580000016626572</v>
+        <v>0.0005474084065120718</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E219">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F219">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>510</v>
@@ -14656,25 +14656,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0005407901070160547</v>
+        <v>0.0005446413905163961</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D220">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E220">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F220">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>511</v>
@@ -14706,13 +14706,13 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0005407901070160547</v>
+        <v>0.0005289263361086843</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E221">
         <v>0.9399999999999999</v>
@@ -14724,7 +14724,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>512</v>
@@ -14756,25 +14756,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0005380565449102934</v>
+        <v>0.0005289263361086843</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E222">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F222">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>513</v>
@@ -14806,7 +14806,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0005225314892958575</v>
+        <v>0.0005289263361086843</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14824,7 +14824,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>514</v>
@@ -14856,13 +14856,13 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0005225314892958575</v>
+        <v>0.0005093260146808123</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E224">
         <v>0.9399999999999999</v>
@@ -14874,7 +14874,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>515</v>
@@ -14906,25 +14906,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0005225314892958575</v>
+        <v>0.0005076627772147783</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E225">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F225">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>516</v>
@@ -14956,28 +14956,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0005031681404754295</v>
+        <v>0.0004884773512927627</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E226">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F226">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K226">
         <v>0.0009343220952651608</v>
@@ -15006,28 +15006,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0005015250119510051</v>
+        <v>0.0004884773512927627</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E227">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F227">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K227">
         <v>0.0009129364091222715</v>
@@ -15056,7 +15056,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0004825715424498264</v>
+        <v>0.0004884773512927627</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -15074,10 +15074,10 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K228">
         <v>0.0009014842669202612</v>
@@ -15106,13 +15106,13 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0004825715424498264</v>
+        <v>0.0004662271235932275</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E229">
         <v>0.93</v>
@@ -15124,10 +15124,10 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K229">
         <v>0.0008682954660451997</v>
@@ -15156,25 +15156,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0004825715424498264</v>
+        <v>0.0004568579688161296</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D230">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E230">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F230">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>517</v>
@@ -15206,25 +15206,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0004605903253628764</v>
+        <v>0.0004423933848349414</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E231">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F231">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>518</v>
@@ -15256,25 +15256,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0004513344459239022</v>
+        <v>0.0004362550613011102</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E232">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F232">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>519</v>
@@ -15306,13 +15306,13 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0004370447422473165</v>
+        <v>0.0004167581917668969</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E233">
         <v>0.92</v>
@@ -15324,7 +15324,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>520</v>
@@ -15356,25 +15356,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0004309806325236261</v>
+        <v>0.0004081427940212878</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D234">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E234">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="F234">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>521</v>
@@ -15406,25 +15406,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0004117194848385425</v>
+        <v>0.0003890581042116453</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E235">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F235">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>522</v>
@@ -15456,25 +15456,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0004032082493269792</v>
+        <v>0.0003890581042116453</v>
       </c>
       <c r="C236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E236">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="F236">
-        <v>0.15</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>523</v>
@@ -15506,7 +15506,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0003843542980143094</v>
+        <v>0.0003890581042116453</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15524,7 +15524,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>524</v>
@@ -15556,25 +15556,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0003843542980143094</v>
+        <v>0.0003825292629074145</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E238">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F238">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>525</v>
@@ -15606,25 +15606,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0003843542980143094</v>
+        <v>0.0003589717923245652</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E239">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F239">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>526</v>
@@ -15656,25 +15656,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0003779043919741325</v>
+        <v>0.0003589717923245652</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E240">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F240">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>527</v>
@@ -15706,7 +15706,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.00035463173688522</v>
+        <v>0.0003589717923245652</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15724,7 +15724,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>528</v>
@@ -15756,25 +15756,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.00035463173688522</v>
+        <v>0.0002904250739492666</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E242">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F242">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>529</v>
@@ -15806,25 +15806,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.00035463173688522</v>
+        <v>0.0002899668367904517</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F243">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>530</v>
@@ -15856,25 +15856,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0002869137648468062</v>
+        <v>0.0002899668367904517</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E244">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F244">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>531</v>
@@ -15906,7 +15906,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0002864610678856229</v>
+        <v>0.0002899668367904517</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15924,7 +15924,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>532</v>
@@ -15956,7 +15956,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0002864610678856229</v>
+        <v>0.0002899668367904517</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15974,7 +15974,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>533</v>
@@ -16006,7 +16006,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0002864610678856229</v>
+        <v>0.0002899668367904517</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -16024,7 +16024,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>534</v>
@@ -16056,7 +16056,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0002864610678856229</v>
+        <v>0.0002899668367904517</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -16074,7 +16074,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>535</v>
@@ -16106,7 +16106,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0002864610678856229</v>
+        <v>0.0002899668367904517</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -16124,7 +16124,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>536</v>
@@ -16156,7 +16156,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0002864610678856229</v>
+        <v>0.0002899668367904517</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -16174,7 +16174,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>537</v>
@@ -16206,7 +16206,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0002864610678856229</v>
+        <v>0.0002899668367904517</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -16224,7 +16224,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>538</v>
@@ -16256,25 +16256,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0002864610678856229</v>
+        <v>0.0002561120839582783</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E252">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F252">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>539</v>
@@ -16306,25 +16306,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0002864610678856229</v>
+        <v>0.0002561120839582783</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E253">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F253">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>540</v>
@@ -16356,7 +16356,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0002530156271702192</v>
+        <v>0.0002561120839582783</v>
       </c>
       <c r="C254">
         <v>2</v>
@@ -16374,7 +16374,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>541</v>
@@ -16406,25 +16406,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0002530156271702192</v>
+        <v>0.0002499588587111054</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E255">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F255">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>542</v>
@@ -16456,25 +16456,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0002530156271702192</v>
+        <v>0.0002499588587111054</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E256">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F256">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>543</v>
@@ -16506,7 +16506,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0002469367958984908</v>
+        <v>0.0002499588587111054</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16524,7 +16524,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>544</v>
@@ -16556,7 +16556,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0002469367958984908</v>
+        <v>0.0002499588587111054</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16574,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>545</v>
@@ -16606,25 +16606,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0002469367958984908</v>
+        <v>0.0002197846098924182</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E259">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F259">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>546</v>
@@ -16656,25 +16656,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0002469367958984908</v>
+        <v>0.0002197846098924182</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E260">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F260">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>547</v>
@@ -16706,25 +16706,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0002171273610164801</v>
+        <v>0.0002059313412530236</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D261">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E261">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="F261">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>548</v>
@@ -16756,25 +16756,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0002171273610164801</v>
+        <v>0.0002053615392161309</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E262">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F262">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>549</v>
@@ -16806,25 +16806,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0002034415817319502</v>
+        <v>0.0002053615392161309</v>
       </c>
       <c r="C263">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E263">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F263">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>550</v>
@@ -16856,7 +16856,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0002028786687389392</v>
+        <v>0.0002053615392161309</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16874,7 +16874,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>551</v>
@@ -16906,7 +16906,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0002028786687389392</v>
+        <v>0.0002053615392161309</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16924,7 +16924,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>552</v>
@@ -16956,7 +16956,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0002028786687389392</v>
+        <v>0.0002053615392161309</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16974,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>553</v>
@@ -17006,7 +17006,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.0002028786687389392</v>
+        <v>0.0002053615392161309</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -17024,7 +17024,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>554</v>
@@ -17056,7 +17056,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0002028786687389392</v>
+        <v>0.0002053615392161309</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -17074,7 +17074,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>555</v>
@@ -17106,25 +17106,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.0002028786687389392</v>
+        <v>0.0001813894825758788</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E269">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F269">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>556</v>
@@ -17156,25 +17156,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0002028786687389392</v>
+        <v>0.0001813894825758788</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E270">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F270">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>557</v>
@@ -17206,25 +17206,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.0001791964400379246</v>
+        <v>0.0001554111880553689</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E271">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F271">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>558</v>
@@ -17256,25 +17256,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.0001791964400379246</v>
+        <v>0.0001554111880553689</v>
       </c>
       <c r="C272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E272">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F272">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>559</v>
@@ -17306,7 +17306,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0001535322293558927</v>
+        <v>0.0001554111880553689</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17324,7 +17324,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>560</v>
@@ -17356,7 +17356,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.0001535322293558927</v>
+        <v>0.0001554111880553689</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17374,7 +17374,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>561</v>
@@ -17406,7 +17406,7 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.0001535322293558927</v>
+        <v>0.0001554111880553689</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -17424,7 +17424,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>562</v>
@@ -17456,25 +17456,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.0001535322293558927</v>
+        <v>0.0001410333737675748</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D276">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E276">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F276">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>563</v>
@@ -17506,25 +17506,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.0001535322293558927</v>
+        <v>0.0001387088218604586</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D277">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E277">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="F277">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>564</v>
@@ -17556,13 +17556,13 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.0001393282463062066</v>
+        <v>9.972565496466951E-05</v>
       </c>
       <c r="C278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E278">
         <v>0.75</v>
@@ -17574,7 +17574,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>565</v>
@@ -17606,25 +17606,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.0001370317987915921</v>
+        <v>9.972565496466951E-05</v>
       </c>
       <c r="C279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D279">
+        <v>4</v>
+      </c>
+      <c r="E279">
+        <v>0.75</v>
+      </c>
+      <c r="F279">
+        <v>0.25</v>
+      </c>
+      <c r="G279" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279">
         <v>11</v>
-      </c>
-      <c r="E279">
-        <v>0.73</v>
-      </c>
-      <c r="F279">
-        <v>0.27</v>
-      </c>
-      <c r="G279" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279">
-        <v>160</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>566</v>
@@ -17656,7 +17656,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>9.851994777394866E-05</v>
+        <v>9.972565496466951E-05</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17674,7 +17674,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>567</v>
@@ -17706,7 +17706,7 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>9.851994777394866E-05</v>
+        <v>9.972565496466951E-05</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -17724,7 +17724,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>568</v>
@@ -17756,7 +17756,7 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>9.851994777394866E-05</v>
+        <v>9.972565496466951E-05</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -17774,7 +17774,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>569</v>
@@ -17806,7 +17806,7 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>9.851994777394866E-05</v>
+        <v>9.972565496466951E-05</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -17824,7 +17824,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>570</v>
@@ -17856,7 +17856,7 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>9.851994777394866E-05</v>
+        <v>9.972565496466951E-05</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -17874,7 +17874,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>571</v>
@@ -17906,7 +17906,7 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>9.851994777394866E-05</v>
+        <v>9.972565496466951E-05</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -17924,7 +17924,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>572</v>
@@ -17956,7 +17956,7 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>9.851994777394866E-05</v>
+        <v>9.972565496466951E-05</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -17974,7 +17974,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>573</v>
@@ -18006,7 +18006,7 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>9.851994777394866E-05</v>
+        <v>9.972565496466951E-05</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -18024,7 +18024,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>574</v>
@@ -18056,25 +18056,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>9.851994777394866E-05</v>
+        <v>9.921202084517381E-05</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E288">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F288">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>575</v>
@@ -18106,25 +18106,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>9.851994777394866E-05</v>
+        <v>9.921202084517381E-05</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D289">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E289">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F289">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>576</v>
@@ -18156,25 +18156,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>9.801252361468332E-05</v>
+        <v>5.740447848602075E-05</v>
       </c>
       <c r="C290">
         <v>2</v>
       </c>
       <c r="D290">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E290">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F290">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>6</v>
@@ -18206,25 +18206,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>9.801252361468332E-05</v>
+        <v>5.740447848601986E-05</v>
       </c>
       <c r="C291">
         <v>2</v>
       </c>
       <c r="D291">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E291">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F291">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>577</v>
@@ -18256,25 +18256,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>5.671044451337153E-05</v>
+        <v>4.059109600794192E-05</v>
       </c>
       <c r="C292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D292">
         <v>3</v>
       </c>
       <c r="E292">
+        <v>0.67</v>
+      </c>
+      <c r="F292">
         <v>0.33</v>
       </c>
-      <c r="F292">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>578</v>
@@ -18306,13 +18306,13 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>5.671044451337065E-05</v>
+        <v>4.059109600794192E-05</v>
       </c>
       <c r="C293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E293">
         <v>0.67</v>
@@ -18324,7 +18324,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>579</v>
@@ -18356,7 +18356,7 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>4.010033987950782E-05</v>
+        <v>4.059109600794192E-05</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -18374,7 +18374,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>580</v>
@@ -18406,7 +18406,7 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>4.010033987950782E-05</v>
+        <v>4.059109600794192E-05</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -18424,7 +18424,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>581</v>
@@ -18456,7 +18456,7 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>4.010033987950782E-05</v>
+        <v>4.059109600794192E-05</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -18474,7 +18474,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>582</v>
@@ -18506,7 +18506,7 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>4.010033987950782E-05</v>
+        <v>4.059109600794192E-05</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -18524,7 +18524,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>583</v>
@@ -18556,7 +18556,7 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>4.010033987950782E-05</v>
+        <v>4.059109600794192E-05</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="H298">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>584</v>
@@ -18606,7 +18606,7 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>4.010033987950782E-05</v>
+        <v>4.059109600794192E-05</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -18624,7 +18624,7 @@
         <v>1</v>
       </c>
       <c r="H299">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>585</v>
@@ -18656,7 +18656,7 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>4.010033987950782E-05</v>
+        <v>4.059109600794192E-05</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -18674,7 +18674,7 @@
         <v>1</v>
       </c>
       <c r="H300">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>586</v>
@@ -18706,7 +18706,7 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>4.010033987950782E-05</v>
+        <v>4.059109600794192E-05</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>587</v>
@@ -18756,28 +18756,28 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>4.010033987950782E-05</v>
+        <v>2.805258210960814E-05</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D302">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E302">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F302">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K302">
         <v>0.0008584902864605279</v>
@@ -18806,28 +18806,28 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>4.010033987950782E-05</v>
+        <v>0</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E303">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F303">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K303">
         <v>0.0008491466761502392</v>
@@ -18856,28 +18856,28 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>2.771341963451761E-05</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D304">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E304">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F304">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K304">
         <v>0.0008347448085318299</v>
@@ -18924,10 +18924,10 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K305">
         <v>0.0008008210463069133</v>
@@ -18974,10 +18974,10 @@
         <v>1</v>
       </c>
       <c r="H306">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K306">
         <v>0.0007665126038275345</v>
@@ -19024,10 +19024,10 @@
         <v>1</v>
       </c>
       <c r="H307">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K307">
         <v>0.0007665126038275345</v>
@@ -19059,10 +19059,10 @@
         <v>0</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D308">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E308">
         <v>0.5</v>
@@ -19074,10 +19074,10 @@
         <v>1</v>
       </c>
       <c r="H308">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K308">
         <v>0.0007372596449925566</v>
@@ -19124,10 +19124,10 @@
         <v>1</v>
       </c>
       <c r="H309">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K309">
         <v>0.0007277391080317114</v>
@@ -19159,10 +19159,10 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D310">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E310">
         <v>0.5</v>
@@ -19174,10 +19174,10 @@
         <v>1</v>
       </c>
       <c r="H310">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K310">
         <v>0.0007277391080317114</v>
@@ -19224,7 +19224,7 @@
         <v>1</v>
       </c>
       <c r="H311">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>588</v>
@@ -19274,7 +19274,7 @@
         <v>1</v>
       </c>
       <c r="H312">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>589</v>
@@ -19324,7 +19324,7 @@
         <v>1</v>
       </c>
       <c r="H313">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>590</v>
@@ -19374,7 +19374,7 @@
         <v>1</v>
       </c>
       <c r="H314">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>591</v>
@@ -19424,7 +19424,7 @@
         <v>1</v>
       </c>
       <c r="H315">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>592</v>
@@ -19474,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="H316">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>593</v>
@@ -19524,7 +19524,7 @@
         <v>1</v>
       </c>
       <c r="H317">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>594</v>
@@ -19552,30 +19552,6 @@
       </c>
     </row>
     <row r="318" spans="1:17">
-      <c r="A318" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B318">
-        <v>0</v>
-      </c>
-      <c r="C318">
-        <v>1</v>
-      </c>
-      <c r="D318">
-        <v>2</v>
-      </c>
-      <c r="E318">
-        <v>0.5</v>
-      </c>
-      <c r="F318">
-        <v>0.5</v>
-      </c>
-      <c r="G318" t="b">
-        <v>1</v>
-      </c>
-      <c r="H318">
-        <v>39</v>
-      </c>
       <c r="J318" s="1" t="s">
         <v>595</v>
       </c>
@@ -19602,30 +19578,6 @@
       </c>
     </row>
     <row r="319" spans="1:17">
-      <c r="A319" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B319">
-        <v>0</v>
-      </c>
-      <c r="C319">
-        <v>1</v>
-      </c>
-      <c r="D319">
-        <v>2</v>
-      </c>
-      <c r="E319">
-        <v>0.5</v>
-      </c>
-      <c r="F319">
-        <v>0.5</v>
-      </c>
-      <c r="G319" t="b">
-        <v>1</v>
-      </c>
-      <c r="H319">
-        <v>48</v>
-      </c>
       <c r="J319" s="1" t="s">
         <v>596</v>
       </c>
@@ -23761,7 +23713,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K478">
         <v>0.0006742837220205105</v>
@@ -23787,7 +23739,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K479">
         <v>0.0006611600132717287</v>
@@ -23813,7 +23765,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K480">
         <v>0.0006611600132717287</v>
@@ -23839,7 +23791,7 @@
     </row>
     <row r="481" spans="10:17">
       <c r="J481" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K481">
         <v>0.0006473052010524174</v>
@@ -23865,7 +23817,7 @@
     </row>
     <row r="482" spans="10:17">
       <c r="J482" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K482">
         <v>0.0006251933999388857</v>
@@ -23891,7 +23843,7 @@
     </row>
     <row r="483" spans="10:17">
       <c r="J483" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K483">
         <v>0.0006201595522436925</v>
@@ -23917,7 +23869,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K484">
         <v>0.0005928475960946005</v>
@@ -23943,7 +23895,7 @@
     </row>
     <row r="485" spans="10:17">
       <c r="J485" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K485">
         <v>0.000588782849354942</v>
@@ -23969,7 +23921,7 @@
     </row>
     <row r="486" spans="10:17">
       <c r="J486" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K486">
         <v>0.000588782849354942</v>
@@ -23995,7 +23947,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K487">
         <v>0.0005519178127491464</v>
@@ -24021,7 +23973,7 @@
     </row>
     <row r="488" spans="10:17">
       <c r="J488" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K488">
         <v>0.0005519178127491464</v>
@@ -24047,7 +23999,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K489">
         <v>0.0005519178127491464</v>
@@ -24073,7 +24025,7 @@
     </row>
     <row r="490" spans="10:17">
       <c r="J490" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K490">
         <v>0.0005145892582238726</v>
@@ -24099,7 +24051,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K491">
         <v>0.0005097577949640472</v>
@@ -33667,7 +33619,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K859">
         <v>0.0004767905922844079</v>
@@ -33693,7 +33645,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K860">
         <v>0.0004767905922844079</v>
@@ -33719,7 +33671,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K861">
         <v>0.0004767905922844079</v>
@@ -33745,7 +33697,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K862">
         <v>0.0004385190248091274</v>
@@ -33771,7 +33723,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K863">
         <v>0.0004167553136284003</v>
@@ -33797,7 +33749,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K864">
         <v>0.0003997776171017212</v>
@@ -33823,7 +33775,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K865">
         <v>0.0003972974738919471</v>
@@ -33849,7 +33801,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K866">
         <v>0.0003933989181062862</v>
@@ -33875,7 +33827,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K867">
         <v>0.0003748169323402893</v>
@@ -33901,7 +33853,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K868">
         <v>0.0003605784066752515</v>
@@ -33927,7 +33879,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K869">
         <v>0.0003209472759586621</v>
@@ -33953,7 +33905,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K870">
         <v>0.0003209472759586621</v>
@@ -33979,7 +33931,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K871">
         <v>0.0003209472759586621</v>
@@ -34005,7 +33957,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K872">
         <v>0.0003116666536113908</v>
@@ -34057,7 +34009,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K874">
         <v>0.0003027660937637204</v>
@@ -34083,7 +34035,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K875">
         <v>0.0002999277195149402</v>
@@ -34109,7 +34061,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K876">
         <v>0.0002809317379372812</v>
@@ -34135,7 +34087,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K877">
         <v>0.0002809317379372812</v>
@@ -34161,7 +34113,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K878">
         <v>0.0002809317379372812</v>
@@ -34187,7 +34139,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K879">
         <v>0.0002544137442888767</v>
@@ -34213,7 +34165,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K880">
         <v>0.0002534516916502522</v>
@@ -34239,7 +34191,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K881">
         <v>0.0002001320198942011</v>
@@ -34265,7 +34217,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K882">
         <v>0.0002001320198942011</v>
@@ -34291,7 +34243,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K883">
         <v>0.0002001320198942011</v>
@@ -34317,7 +34269,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K884">
         <v>0.0002001320198942011</v>
@@ -34343,7 +34295,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K885">
         <v>0.0002001320198942011</v>
@@ -34369,7 +34321,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K886">
         <v>0.0002001320198942011</v>
@@ -34395,7 +34347,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K887">
         <v>0.0002001320198942011</v>
@@ -34421,7 +34373,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K888">
         <v>0.0002001320198942011</v>
@@ -34447,7 +34399,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K889">
         <v>0.0002001320198942011</v>
@@ -34473,7 +34425,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K890">
         <v>0.000169409725397316</v>
@@ -34499,7 +34451,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K891">
         <v>0.0001597215021350927</v>
@@ -34525,7 +34477,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K892">
         <v>0.0001597215021350927</v>
@@ -34551,7 +34503,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K893">
         <v>0.0001597215021350927</v>
@@ -34577,7 +34529,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K894">
         <v>0.0001597215021350927</v>
@@ -34629,7 +34581,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K896">
         <v>0.0001417279660484109</v>
@@ -34655,7 +34607,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K897">
         <v>0.0001417279660484109</v>
@@ -34681,7 +34633,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K898">
         <v>0.0001417279660484109</v>
@@ -34707,7 +34659,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K899">
         <v>0.0001216232945550597</v>
@@ -34733,7 +34685,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K900">
         <v>0.000119790765627393</v>
@@ -34759,7 +34711,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K901">
         <v>0.000119790765627393</v>
@@ -34785,7 +34737,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K902">
         <v>0.000119790765627393</v>
@@ -34811,7 +34763,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K903">
         <v>0.000119790765627393</v>
@@ -34837,7 +34789,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K904">
         <v>0.000119790765627393</v>
@@ -34863,7 +34815,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K905">
         <v>0.000119790765627393</v>
@@ -34889,7 +34841,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K906">
         <v>0.000119790765627393</v>
@@ -34915,7 +34867,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K907">
         <v>0.000114669125818328</v>
@@ -34941,7 +34893,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K908">
         <v>0.000114669125818328</v>
@@ -34967,7 +34919,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K909">
         <v>9.808013353566691E-05</v>
@@ -34993,7 +34945,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K910">
         <v>8.852488104374975E-05</v>
@@ -35019,7 +34971,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K911">
         <v>8.852488104374975E-05</v>
@@ -35045,7 +34997,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K912">
         <v>8.108331645887311E-05</v>
@@ -35071,7 +35023,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K913">
         <v>8.108331645887311E-05</v>
@@ -35097,7 +35049,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K914">
         <v>8.108331645887311E-05</v>
@@ -35123,7 +35075,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K915">
         <v>8.108331645887311E-05</v>
@@ -35149,7 +35101,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K916">
         <v>8.108331645887311E-05</v>
@@ -35175,7 +35127,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K917">
         <v>6.372381236854814E-05</v>
@@ -35201,7 +35153,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K918">
         <v>5.908914104553301E-05</v>
@@ -35227,7 +35179,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K919">
         <v>4.505953984885959E-05</v>
@@ -35253,7 +35205,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K920">
         <v>4.505953984885959E-05</v>
@@ -35279,7 +35231,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K921">
         <v>4.505953984885959E-05</v>
@@ -35305,7 +35257,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K922">
         <v>4.505953984885959E-05</v>
@@ -35331,7 +35283,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K923">
         <v>4.505953984885959E-05</v>
@@ -35357,7 +35309,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K924">
         <v>4.505953984885959E-05</v>
@@ -35383,7 +35335,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K925">
         <v>4.505953984885959E-05</v>
@@ -35409,7 +35361,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K926">
         <v>4.505953984885959E-05</v>
@@ -35435,7 +35387,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K927">
         <v>4.505953984885959E-05</v>
@@ -35461,7 +35413,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K928">
         <v>4.505953984885959E-05</v>
@@ -35487,7 +35439,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K929">
         <v>4.092168687391074E-05</v>
@@ -35513,7 +35465,7 @@
     </row>
     <row r="930" spans="10:17">
       <c r="J930" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K930">
         <v>4.092168687391074E-05</v>
@@ -35539,7 +35491,7 @@
     </row>
     <row r="931" spans="10:17">
       <c r="J931" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K931">
         <v>2.117775897737749E-05</v>
@@ -35565,7 +35517,7 @@
     </row>
     <row r="932" spans="10:17">
       <c r="J932" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K932">
         <v>1.497493698323799E-05</v>
@@ -35591,7 +35543,7 @@
     </row>
     <row r="933" spans="10:17">
       <c r="J933" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K933">
         <v>1.497493698323799E-05</v>
@@ -35617,7 +35569,7 @@
     </row>
     <row r="934" spans="10:17">
       <c r="J934" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K934">
         <v>1.497493698323799E-05</v>
@@ -35643,7 +35595,7 @@
     </row>
     <row r="935" spans="10:17">
       <c r="J935" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K935">
         <v>1.497493698323799E-05</v>
@@ -35669,7 +35621,7 @@
     </row>
     <row r="936" spans="10:17">
       <c r="J936" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K936">
         <v>1.497493698323799E-05</v>
@@ -35695,7 +35647,7 @@
     </row>
     <row r="937" spans="10:17">
       <c r="J937" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K937">
         <v>1.497493698323799E-05</v>
@@ -35721,7 +35673,7 @@
     </row>
     <row r="938" spans="10:17">
       <c r="J938" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K938">
         <v>1.497493698323799E-05</v>
@@ -35747,7 +35699,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K939">
         <v>1.497493698323799E-05</v>
@@ -35773,7 +35725,7 @@
     </row>
     <row r="940" spans="10:17">
       <c r="J940" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K940">
         <v>1.497493698323799E-05</v>
@@ -35799,7 +35751,7 @@
     </row>
     <row r="941" spans="10:17">
       <c r="J941" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K941">
         <v>1.497493698323799E-05</v>
@@ -35825,7 +35777,7 @@
     </row>
     <row r="942" spans="10:17">
       <c r="J942" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K942">
         <v>1.058887948868864E-05</v>
@@ -35851,7 +35803,7 @@
     </row>
     <row r="943" spans="10:17">
       <c r="J943" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K943">
         <v>8.962676050807983E-06</v>
@@ -35877,7 +35829,7 @@
     </row>
     <row r="944" spans="10:17">
       <c r="J944" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K944">
         <v>0</v>
@@ -35903,7 +35855,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K945">
         <v>0</v>
@@ -35929,7 +35881,7 @@
     </row>
     <row r="946" spans="10:17">
       <c r="J946" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K946">
         <v>0</v>
@@ -35955,7 +35907,7 @@
     </row>
     <row r="947" spans="10:17">
       <c r="J947" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K947">
         <v>0</v>
@@ -35981,7 +35933,7 @@
     </row>
     <row r="948" spans="10:17">
       <c r="J948" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K948">
         <v>0</v>
@@ -36007,7 +35959,7 @@
     </row>
     <row r="949" spans="10:17">
       <c r="J949" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K949">
         <v>0</v>
@@ -36033,7 +35985,7 @@
     </row>
     <row r="950" spans="10:17">
       <c r="J950" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K950">
         <v>0</v>
@@ -36059,7 +36011,7 @@
     </row>
     <row r="951" spans="10:17">
       <c r="J951" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K951">
         <v>0</v>
@@ -36085,7 +36037,7 @@
     </row>
     <row r="952" spans="10:17">
       <c r="J952" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K952">
         <v>0</v>
@@ -36111,7 +36063,7 @@
     </row>
     <row r="953" spans="10:17">
       <c r="J953" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K953">
         <v>0</v>
@@ -36137,7 +36089,7 @@
     </row>
     <row r="954" spans="10:17">
       <c r="J954" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K954">
         <v>0</v>
@@ -36163,7 +36115,7 @@
     </row>
     <row r="955" spans="10:17">
       <c r="J955" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K955">
         <v>0</v>
@@ -36189,7 +36141,7 @@
     </row>
     <row r="956" spans="10:17">
       <c r="J956" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K956">
         <v>0</v>
@@ -36215,7 +36167,7 @@
     </row>
     <row r="957" spans="10:17">
       <c r="J957" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K957">
         <v>0</v>
@@ -36241,7 +36193,7 @@
     </row>
     <row r="958" spans="10:17">
       <c r="J958" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K958">
         <v>0</v>
